--- a/Pre-GDC-prototype-addiction/Assets/docs/Incremental_stats.xlsx
+++ b/Pre-GDC-prototype-addiction/Assets/docs/Incremental_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\Pre-GDC\Pre-GDC-prototype-addiction\Assets\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85817F66-57BF-4E9E-A5AD-708BC79D26AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD63E01-5486-461C-B13C-735B5CDB3984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21960" yWindow="830" windowWidth="6190" windowHeight="17070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -390,15 +390,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -409,7 +409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1">
+    <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,7 +420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>0</v>
       </c>
@@ -430,8 +430,18 @@
       <c r="C3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <f>C3/B3</f>
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>1</v>
       </c>
@@ -443,21 +453,33 @@
         <f>C3*3</f>
         <v>300</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5">
-        <f t="shared" ref="B5:B25" si="0">B4*2</f>
+        <f t="shared" ref="B5:B13" si="0">B4*2</f>
         <v>4</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:C25" si="1">C4*3</f>
+        <f t="shared" ref="C5:C13" si="1">C4*3</f>
         <v>900</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>3</v>
       </c>
@@ -469,8 +491,14 @@
         <f t="shared" si="1"/>
         <v>2700</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>4</v>
       </c>
@@ -482,8 +510,14 @@
         <f t="shared" si="1"/>
         <v>8100</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="F7">
+        <v>20</v>
+      </c>
+      <c r="G7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>5</v>
       </c>
@@ -495,8 +529,14 @@
         <f t="shared" si="1"/>
         <v>24300</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="F8">
+        <v>35</v>
+      </c>
+      <c r="G8">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>6</v>
       </c>
@@ -508,8 +548,14 @@
         <f t="shared" si="1"/>
         <v>72900</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="F9">
+        <v>60</v>
+      </c>
+      <c r="G9">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>7</v>
       </c>
@@ -521,8 +567,14 @@
         <f t="shared" si="1"/>
         <v>218700</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="F10">
+        <v>120</v>
+      </c>
+      <c r="G10">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>8</v>
       </c>
@@ -534,8 +586,14 @@
         <f t="shared" si="1"/>
         <v>656100</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="F11">
+        <v>250</v>
+      </c>
+      <c r="G11">
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>9</v>
       </c>
@@ -547,8 +605,14 @@
         <f t="shared" si="1"/>
         <v>1968300</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="F12">
+        <v>500</v>
+      </c>
+      <c r="G12">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>10</v>
       </c>
@@ -559,6 +623,9 @@
       <c r="C13">
         <f t="shared" si="1"/>
         <v>5904900</v>
+      </c>
+      <c r="F13">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Pre-GDC-prototype-addiction/Assets/docs/Incremental_stats.xlsx
+++ b/Pre-GDC-prototype-addiction/Assets/docs/Incremental_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\Pre-GDC\Pre-GDC-prototype-addiction\Assets\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD63E01-5486-461C-B13C-735B5CDB3984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD92A8D-F482-4B1D-B18D-3E113E1BA3E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14800" yWindow="1520" windowWidth="8660" windowHeight="17070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -393,7 +393,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
